--- a/data_processing/interventions.xlsx
+++ b/data_processing/interventions.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/espeer/Desktop/docs/filesys/CS162/EV_true_cost/data_processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B93E195-A7A3-B44D-B6B2-869294F1CE5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D94C8D7-1188-E443-A589-1ABD6DBE8B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{1DB5611E-8882-7541-8C42-C487034AC82C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{1DB5611E-8882-7541-8C42-C487034AC82C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,16 +41,16 @@
     <t>Miles</t>
   </si>
   <si>
-    <t>EV Cost</t>
-  </si>
-  <si>
-    <t>ICE Cost</t>
-  </si>
-  <si>
     <t>EV Price</t>
   </si>
   <si>
     <t>ICE Price</t>
+  </si>
+  <si>
+    <t>Expected ICE Cost</t>
+  </si>
+  <si>
+    <t>Expected EV Cost</t>
   </si>
 </sst>
 </file>
@@ -189,7 +189,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EV Cost</c:v>
+                  <c:v>Expected EV Cost</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -324,7 +324,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ICE Cost</c:v>
+                  <c:v>Expected ICE Cost</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -739,6 +739,61 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Miles Driven</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -1860,7 +1915,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N43" sqref="N43"/>
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1870,16 +1925,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
